--- a/Documents/MotorSelection/CurrentConsumption.xlsx
+++ b/Documents/MotorSelection/CurrentConsumption.xlsx
@@ -240,23 +240,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,15 +557,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -807,41 +807,41 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="14">
         <f>SUM(D3:D11)</f>
         <v>1.1976</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="10">
         <f>SUM(G3:G11)</f>
         <v>791.34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -900,8 +900,8 @@
       <c r="C17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="14">
-        <v>1</v>
+      <c r="D17" s="13">
+        <v>0.2</v>
       </c>
       <c r="E17" s="7">
         <v>15</v>
@@ -911,7 +911,7 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,20 +963,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="14">
         <f>SUM(D16:D19)</f>
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+        <v>0.48500000000000004</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="10">
         <f>SUM(G16:G19)</f>
-        <v>2056.5</v>
+        <v>616.5</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Documents/MotorSelection/CurrentConsumption.xlsx
+++ b/Documents/MotorSelection/CurrentConsumption.xlsx
@@ -107,10 +107,10 @@
     <t>11.1</t>
   </si>
   <si>
-    <t>7.4V Battery</t>
-  </si>
-  <si>
-    <t>11.1V Battery</t>
+    <t>7.4 V Battery 2200 mAh</t>
+  </si>
+  <si>
+    <t>11.1 V Battery 2200 mAh</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
